--- a/Base/Teams/49ers/Distributions.xlsx
+++ b/Base/Teams/49ers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.801361869810946, 1.5217482927666635, -1.2874023853663543, 2.737176357058992)</t>
-  </si>
-  <si>
-    <t>NIG(1.3638627950358075, 1.0813612211370138, 4.908233950469765, 5.835049805867281)</t>
-  </si>
-  <si>
-    <t>JSU(-0.851550852358577, 1.1518004375718602, 0.6499171194223723, 3.250916149978635)</t>
-  </si>
-  <si>
-    <t>NIG(1.0467644805397178, 0.8072750116586681, 3.515087570847813, 5.833784031249632)</t>
+    <t>NCT(2.799257602882035, 1.5021707826232191, -1.1517886662636974, 2.656790039974177)</t>
+  </si>
+  <si>
+    <t>NIG(1.3972564691830003, 1.1160143088384082, 4.952284557658946, 5.849337751043771)</t>
+  </si>
+  <si>
+    <t>NIG(0.8378493481521685, 0.5587806432168014, 1.3801038347749603, 3.3503922326746287)</t>
+  </si>
+  <si>
+    <t>NCT(2.4556167987130504, 1.51701196430324, -0.009623588115898571, 4.483896015283383)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/49ers/Distributions.xlsx
+++ b/Base/Teams/49ers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.799257602882035, 1.5021707826232191, -1.1517886662636974, 2.656790039974177)</t>
-  </si>
-  <si>
-    <t>NIG(1.3972564691830003, 1.1160143088384082, 4.952284557658946, 5.849337751043771)</t>
-  </si>
-  <si>
-    <t>NIG(0.8378493481521685, 0.5587806432168014, 1.3801038347749603, 3.3503922326746287)</t>
-  </si>
-  <si>
-    <t>NCT(2.4556167987130504, 1.51701196430324, -0.009623588115898571, 4.483896015283383)</t>
+    <t>NCT(2.7316340639675967, 1.479593023370971, -1.0583637706084565, 2.619037429578216)</t>
+  </si>
+  <si>
+    <t>NIG(1.7537977915496092, 1.418181942225564, 4.147663007154127, 6.088155819747874)</t>
+  </si>
+  <si>
+    <t>NIG(0.814761437997534, 0.5422459335288872, 1.4223418449292335, 3.2364344187783542)</t>
+  </si>
+  <si>
+    <t>NCT(3.171125226359752, 2.177237235752261, -3.153876516199597, 4.690108926028797)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/49ers/Distributions.xlsx
+++ b/Base/Teams/49ers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.7316340639675967, 1.479593023370971, -1.0583637706084565, 2.619037429578216)</t>
-  </si>
-  <si>
-    <t>NIG(1.7537977915496092, 1.418181942225564, 4.147663007154127, 6.088155819747874)</t>
-  </si>
-  <si>
-    <t>NIG(0.814761437997534, 0.5422459335288872, 1.4223418449292335, 3.2364344187783542)</t>
-  </si>
-  <si>
-    <t>NCT(3.171125226359752, 2.177237235752261, -3.153876516199597, 4.690108926028797)</t>
+    <t>NCT(2.721116280972109, 1.5114120164233908, -0.966702854389722, 2.533985683069095)</t>
+  </si>
+  <si>
+    <t>NIG(2.031888860545584, 1.6774120902836565, 3.4159758905180535, 6.23074190749257)</t>
+  </si>
+  <si>
+    <t>NIG(0.9163159414801771, 0.6201668573895849, 1.2056742748848843, 3.2365445692898343)</t>
+  </si>
+  <si>
+    <t>NIG(1.3323388630239843, 1.0274026294851104, 2.740350203058832, 6.479167014603409)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/49ers/Distributions.xlsx
+++ b/Base/Teams/49ers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.721116280972109, 1.5114120164233908, -0.966702854389722, 2.533985683069095)</t>
-  </si>
-  <si>
-    <t>NIG(2.031888860545584, 1.6774120902836565, 3.4159758905180535, 6.23074190749257)</t>
-  </si>
-  <si>
-    <t>NIG(0.9163159414801771, 0.6201668573895849, 1.2056742748848843, 3.2365445692898343)</t>
-  </si>
-  <si>
-    <t>NIG(1.3323388630239843, 1.0274026294851104, 2.740350203058832, 6.479167014603409)</t>
+    <t>NCT(2.718222549431667, 1.5457403697784957, -1.041029270424819, 2.526347100562293)</t>
+  </si>
+  <si>
+    <t>NIG(2.1349158004816235, 1.7869320357325307, 3.147794013148571, 6.23641030468043)</t>
+  </si>
+  <si>
+    <t>NIG(0.8696489134334162, 0.5628650834124281, 1.3822502482759418, 3.2156207718117877)</t>
+  </si>
+  <si>
+    <t>NIG(1.2840990413808786, 0.9832740277120589, 2.8825757186196954, 6.32772757119195)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/49ers/Distributions.xlsx
+++ b/Base/Teams/49ers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.718222549431667, 1.5457403697784957, -1.041029270424819, 2.526347100562293)</t>
-  </si>
-  <si>
-    <t>NIG(2.1349158004816235, 1.7869320357325307, 3.147794013148571, 6.23641030468043)</t>
-  </si>
-  <si>
-    <t>NIG(0.8696489134334162, 0.5628650834124281, 1.3822502482759418, 3.2156207718117877)</t>
-  </si>
-  <si>
-    <t>NIG(1.2840990413808786, 0.9832740277120589, 2.8825757186196954, 6.32772757119195)</t>
+    <t>NCT(2.9215594866898087, 1.7331519473645112, -1.5469261442825584, 2.5449011747400863)</t>
+  </si>
+  <si>
+    <t>NIG(2.0703748312614274, 1.6968808133207323, 3.230016032244919, 6.643863361639738)</t>
+  </si>
+  <si>
+    <t>NIG(0.8395308541281241, 0.5467952768774937, 1.3115356125259146, 3.11366034188084)</t>
+  </si>
+  <si>
+    <t>NIG(1.174633486569486, 0.8909627719899003, 3.394944577059021, 6.109818489204002)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/49ers/Distributions.xlsx
+++ b/Base/Teams/49ers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.9215594866898087, 1.7331519473645112, -1.5469261442825584, 2.5449011747400863)</t>
-  </si>
-  <si>
-    <t>NIG(2.0703748312614274, 1.6968808133207323, 3.230016032244919, 6.643863361639738)</t>
-  </si>
-  <si>
-    <t>NIG(0.8395308541281241, 0.5467952768774937, 1.3115356125259146, 3.11366034188084)</t>
-  </si>
-  <si>
-    <t>NIG(1.174633486569486, 0.8909627719899003, 3.394944577059021, 6.109818489204002)</t>
+    <t>MIE(8.337755133772903, 5.0572030805735935, -10.11305051265931, 11.922641962745328)</t>
+  </si>
+  <si>
+    <t>NIG(2.1910975699432873, 1.7816554348426665, 3.0847467423744863, 6.889555637008751)</t>
+  </si>
+  <si>
+    <t>NIG(0.7930632690498539, 0.5094026695405718, 1.419497209597988, 3.0270772577669702)</t>
+  </si>
+  <si>
+    <t>NIG(1.0805655219587362, 0.8308985024863275, 3.537203511217257, 5.826580913183122)</t>
   </si>
 </sst>
 </file>
